--- a/ExcelData/phone/phoneMessageData.xlsx
+++ b/ExcelData/phone/phoneMessageData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -73,7 +73,16 @@
     <t>狐狸</t>
   </si>
   <si>
+    <t>未来的大明星，你好！想要在贝壳市找到自己的梦想，钱是不可或缺的。我现在向你借10万，等你一年后发迹了记得还我，祝你好运。</t>
+  </si>
+  <si>
     <t>S001002</t>
+  </si>
+  <si>
+    <t>贝壳银行</t>
+  </si>
+  <si>
+    <t>【贝壳银行】尊敬的客户您好！您现在在我行有贷款，请尽快在规定期限内还清，以免对您造成不便。贝壳银行，真诚为您服务！</t>
   </si>
 </sst>
 </file>
@@ -694,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1010,7 +1019,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1073,17 +1082,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" ht="57.6" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" ht="57.6" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelData/phone/phoneMessageData.xlsx
+++ b/ExcelData/phone/phoneMessageData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -40,12 +40,12 @@
     <t>sender</t>
   </si>
   <si>
-    <t>iconpath</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -61,10 +61,10 @@
     <t>发送者</t>
   </si>
   <si>
-    <t>图标的路径</t>
-  </si>
-  <si>
     <t>信息内容</t>
+  </si>
+  <si>
+    <t>条件</t>
   </si>
   <si>
     <t>S001001</t>
@@ -764,6 +764,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,16 +1026,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5555555555556" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="35.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1082,25 +1088,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="57.6" spans="2:5">
+    <row r="4" ht="57.6" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="57.6" spans="2:5">
+    <row r="5" ht="57.6" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
